--- a/His Data/Data SectExt.xlsx
+++ b/His Data/Data SectExt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\DatArg\DatArg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feder\DatArg\DatArg 2.0\His Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD5CEA7-B858-4A69-84B5-06CE20F1D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E398C682-03AE-4DC1-A986-40C254AAB423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-5100" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{88D4A9C4-8EA8-4BBD-93DD-46978208F079}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{88D4A9C4-8EA8-4BBD-93DD-46978208F079}"/>
   </bookViews>
   <sheets>
     <sheet name="Dest X" sheetId="3" r:id="rId1"/>
@@ -184,9 +184,6 @@
     <t>Alianza del Pacífico</t>
   </si>
   <si>
-    <t>Unión Europea (27)</t>
-  </si>
-  <si>
     <t>Reino Unido</t>
   </si>
   <si>
@@ -270,6 +267,9 @@
   <si>
     <t>Atrasos_3</t>
   </si>
+  <si>
+    <t>Unión Europea</t>
+  </si>
 </sst>
 </file>
 
@@ -344,7 +344,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -646,7 +646,7 @@
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="20" width="9" bestFit="1" customWidth="1"/>
@@ -659,7 +659,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>45</v>
@@ -2223,7 +2223,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D15" s="1">
         <v>125.734207</v>
@@ -2333,7 +2333,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D16" s="1">
         <v>5.7491120000000002</v>
@@ -2443,7 +2443,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1">
         <v>317.36235499999998</v>
@@ -2553,7 +2553,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1">
         <v>338.77599600000002</v>
@@ -2663,7 +2663,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D19" s="1">
         <v>235.67308600000001</v>
@@ -2773,7 +2773,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D20" s="1">
         <v>523.24346800000001</v>
@@ -2883,7 +2883,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1">
         <v>1403.765676</v>
@@ -2993,7 +2993,7 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1">
         <v>41.124724999999998</v>
@@ -3103,7 +3103,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D23" s="1">
         <v>107.28155</v>
@@ -3213,7 +3213,7 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D24" s="1">
         <v>220.63740100000001</v>
@@ -3320,7 +3320,7 @@
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="1">
         <v>186.249392</v>
@@ -3751,7 +3751,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29" s="1">
         <v>300.672934</v>
@@ -3861,7 +3861,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="1">
         <v>50.875771</v>
@@ -3971,7 +3971,7 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1">
         <v>92.781167999999994</v>
@@ -4081,7 +4081,7 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1">
         <v>394.91091999999998</v>
@@ -4191,7 +4191,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="1">
         <v>82.266086000000001</v>
@@ -4301,7 +4301,7 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="1">
         <v>47.945627000000002</v>
@@ -4411,7 +4411,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="1">
         <v>1.7568E-2</v>
@@ -4521,7 +4521,7 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="1">
         <v>194.24950100000001</v>
@@ -4952,7 +4952,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1">
         <v>22.682682</v>
@@ -5062,7 +5062,7 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41" s="1">
         <v>46.819346000000003</v>
@@ -5172,7 +5172,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42" s="1">
         <v>134.21566300000001</v>
@@ -5282,7 +5282,7 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43" s="1">
         <v>16.784974999999999</v>
@@ -5392,7 +5392,7 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44" s="1">
         <v>0</v>
@@ -5502,7 +5502,7 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45" s="1">
         <v>76.813705999999996</v>
@@ -5609,7 +5609,7 @@
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" s="1">
         <v>2009.6272879999999</v>
@@ -5723,15 +5723,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5190D94-7D6A-4559-BE2D-FDF4F3E90DF6}">
   <dimension ref="A1:AK46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
         <v>45</v>
@@ -7295,7 +7295,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D15">
         <v>54.396391999999999</v>
@@ -7405,7 +7405,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D16">
         <v>26.522020999999999</v>
@@ -7515,7 +7515,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D17">
         <v>37.522384000000002</v>
@@ -7625,7 +7625,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D18">
         <v>111.198446</v>
@@ -7735,7 +7735,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D19">
         <v>173.73865900000001</v>
@@ -7845,7 +7845,7 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D20">
         <v>213.46197000000001</v>
@@ -7955,7 +7955,7 @@
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D21">
         <v>48.996901999999999</v>
@@ -8065,7 +8065,7 @@
         <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D22">
         <v>16.837135</v>
@@ -8175,7 +8175,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D23">
         <v>2.960887</v>
@@ -8285,7 +8285,7 @@
         <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D24">
         <v>94.673686000000004</v>
@@ -8392,7 +8392,7 @@
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25">
         <v>48.239992999999998</v>
@@ -8823,7 +8823,7 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D29">
         <v>40.938927999999997</v>
@@ -8933,7 +8933,7 @@
         <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30">
         <v>87.687594000000004</v>
@@ -9043,7 +9043,7 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31">
         <v>8.4668349999999997</v>
@@ -9153,7 +9153,7 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32">
         <v>181.22535099999999</v>
@@ -9263,7 +9263,7 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33">
         <v>0.85395399999999999</v>
@@ -9373,7 +9373,7 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34">
         <v>25.729346</v>
@@ -9483,7 +9483,7 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36">
         <v>38.553714999999997</v>
@@ -10024,7 +10024,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40">
         <v>3.4347000000000003E-2</v>
@@ -10134,7 +10134,7 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -10244,7 +10244,7 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>6.4974000000000004E-2</v>
@@ -10354,7 +10354,7 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D43">
         <v>0.87405100000000002</v>
@@ -10464,7 +10464,7 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -10574,7 +10574,7 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D45">
         <v>3.7357740000000002</v>
@@ -10681,7 +10681,7 @@
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46">
         <v>468.30188700000002</v>
@@ -10788,6 +10788,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10795,84 +10796,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{561182AB-FCE3-4783-ABAF-A0D0F9770365}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N1" t="s">
-        <v>58</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" t="s">
         <v>59</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U1" t="s">
         <v>74</v>
       </c>
-      <c r="Q1" t="s">
-        <v>64</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W1" t="s">
         <v>65</v>
       </c>
-      <c r="S1" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>75</v>
-      </c>
-      <c r="V1" t="s">
-        <v>62</v>
-      </c>
-      <c r="W1" t="s">
-        <v>66</v>
-      </c>
-      <c r="X1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
